--- a/legendre_out/DATA/p2/a0/p2_rates.xlsx
+++ b/legendre_out/DATA/p2/a0/p2_rates.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C61"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -380,662 +380,266 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>0.001</v>
+        <v>0.1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.001</v>
+        <v>0.1</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>9.752381164061416e-167</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>0.002</v>
+        <v>0.15</v>
       </c>
       <c r="B3" t="n">
-        <v>0.002</v>
+        <v>0.15</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.770887108826179e-109</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>0.003</v>
+        <v>0.2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.003</v>
+        <v>0.2</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1.346392109948661e-80</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>0.004</v>
+        <v>0.3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.004</v>
+        <v>0.3</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>5.628738931700521e-52</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>0.005</v>
+        <v>0.4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.005</v>
+        <v>0.4</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1.031314642680894e-37</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>0.006</v>
+        <v>0.5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.006</v>
+        <v>0.5</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>3.567694350869352e-29</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>0.007</v>
+        <v>0.6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.007</v>
+        <v>0.6</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1.78418817859424e-23</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>0.008</v>
+        <v>0.7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.008</v>
+        <v>0.7</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>2.231786737560573e-19</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>2.862831415839441e-16</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>0.01</v>
+        <v>0.9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.01</v>
+        <v>0.9</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>8.060266005434188e-14</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>0.011</v>
+        <v>1</v>
       </c>
       <c r="B12" t="n">
-        <v>0.011</v>
+        <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>7.75003910966522e-12</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>0.012</v>
+        <v>1.5</v>
       </c>
       <c r="B13" t="n">
-        <v>0.012</v>
+        <v>1.5</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>8.649071599281279e-06</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>0.013</v>
+        <v>2</v>
       </c>
       <c r="B14" t="n">
-        <v>0.013</v>
+        <v>2</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>0.009480027440520244</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>0.014</v>
+        <v>2.5</v>
       </c>
       <c r="B15" t="n">
-        <v>0.014</v>
+        <v>2.5</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>0.6131053387872389</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>0.015</v>
+        <v>3</v>
       </c>
       <c r="B16" t="n">
-        <v>0.015</v>
+        <v>3</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>9.596836498523867</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>0.016</v>
+        <v>3.5</v>
       </c>
       <c r="B17" t="n">
-        <v>0.016</v>
+        <v>3.5</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>66.87627009021833</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>0.018</v>
+        <v>4</v>
       </c>
       <c r="B18" t="n">
-        <v>0.018</v>
+        <v>4</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>281.4785845770608</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>0.02</v>
+        <v>4.5</v>
       </c>
       <c r="B19" t="n">
-        <v>0.02</v>
+        <v>4.5</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>847.5940342693552</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>0.025</v>
+        <v>5</v>
       </c>
       <c r="B20" t="n">
-        <v>0.025</v>
+        <v>5</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>2020.97508774287</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>0.03</v>
+        <v>6</v>
       </c>
       <c r="B21" t="n">
-        <v>0.03</v>
+        <v>6</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>7224.308108617844</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>0.04</v>
+        <v>7</v>
       </c>
       <c r="B22" t="n">
-        <v>0.04</v>
+        <v>7</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>17409.30421840865</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>0.05</v>
+        <v>8</v>
       </c>
       <c r="B23" t="n">
-        <v>0.05</v>
+        <v>8</v>
       </c>
       <c r="C23" t="n">
-        <v>3.537689594428015e-282</v>
+        <v>32886.41687180898</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>0.06</v>
+        <v>9</v>
       </c>
       <c r="B24" t="n">
-        <v>0.06</v>
+        <v>9</v>
       </c>
       <c r="C24" t="n">
-        <v>4.777050671742884e-236</v>
+        <v>52927.60342131788</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>0.07000000000000001</v>
+        <v>10</v>
       </c>
       <c r="B25" t="n">
-        <v>0.07000000000000001</v>
+        <v>10</v>
       </c>
       <c r="C25" t="n">
-        <v>4.613006328716682e-203</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="B26" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="C26" t="n">
-        <v>2.737607844238852e-178</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="B27" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="C27" t="n">
-        <v>5.49387525023471e-159</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="B28" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="C28" t="n">
-        <v>1.641178579863489e-143</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="B29" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="C29" t="n">
-        <v>8.098649822946419e-131</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="B30" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="C30" t="n">
-        <v>3.278288751259433e-120</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="B31" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="C31" t="n">
-        <v>3.295578390617219e-111</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="B32" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="C32" t="n">
-        <v>1.812504711352598e-103</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="B33" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="C33" t="n">
-        <v>9.724210062881202e-97</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="B34" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="C34" t="n">
-        <v>7.849980382443124e-91</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="B35" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="C35" t="n">
-        <v>6.094915256663241e-81</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="B36" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="C36" t="n">
-        <v>5.559159700872607e-73</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="B37" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="C37" t="n">
-        <v>1.629367175754193e-58</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="B38" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="C38" t="n">
-        <v>9.846520256645838e-49</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="B39" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="C39" t="n">
-        <v>1.228350897002504e-41</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="B40" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="C40" t="n">
-        <v>3.406419245736028e-36</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="B41" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="C41" t="n">
-        <v>7.968154700157861e-32</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="B42" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C42" t="n">
-        <v>3.197694497404639e-28</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="B43" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="C43" t="n">
-        <v>1.133350484785864e-22</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="B44" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="C44" t="n">
-        <v>1.213105954068963e-18</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="B45" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="C45" t="n">
-        <v>1.358694431156312e-15</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="B46" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="C46" t="n">
-        <v>3.341852190061542e-13</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B47" t="n">
-        <v>1</v>
-      </c>
-      <c r="C47" t="n">
-        <v>2.834345050651381e-11</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="B48" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="C48" t="n">
-        <v>9.269460018592637e-08</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="B49" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="C49" t="n">
-        <v>2.192607545906539e-05</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="B50" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="C50" t="n">
-        <v>0.001114879215692048</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B51" t="n">
-        <v>2</v>
-      </c>
-      <c r="C51" t="n">
-        <v>0.02133859114739302</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="B52" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="C52" t="n">
-        <v>1.318873727418</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B53" t="n">
-        <v>3</v>
-      </c>
-      <c r="C53" t="n">
-        <v>20.22608039176941</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="B54" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="C54" t="n">
-        <v>139.5141164854345</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B55" t="n">
-        <v>4</v>
-      </c>
-      <c r="C55" t="n">
-        <v>584.0647975305335</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B56" t="n">
-        <v>5</v>
-      </c>
-      <c r="C56" t="n">
-        <v>4175.691493074621</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B57" t="n">
-        <v>6</v>
-      </c>
-      <c r="C57" t="n">
-        <v>14916.28152187045</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B58" t="n">
-        <v>7</v>
-      </c>
-      <c r="C58" t="n">
-        <v>35966.80585916865</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B59" t="n">
-        <v>8</v>
-      </c>
-      <c r="C59" t="n">
-        <v>68014.15486126658</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B60" t="n">
-        <v>9</v>
-      </c>
-      <c r="C60" t="n">
-        <v>109595.2070463171</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B61" t="n">
-        <v>10</v>
-      </c>
-      <c r="C61" t="n">
-        <v>158118.6008602326</v>
+        <v>76268.12442427165</v>
       </c>
     </row>
   </sheetData>

--- a/legendre_out/DATA/p2/a0/p2_rates.xlsx
+++ b/legendre_out/DATA/p2/a0/p2_rates.xlsx
@@ -386,7 +386,7 @@
         <v>0.1</v>
       </c>
       <c r="C2" t="n">
-        <v>9.752381164061416e-167</v>
+        <v>3.36716972979185e-167</v>
       </c>
     </row>
     <row r="3">
@@ -397,7 +397,7 @@
         <v>0.15</v>
       </c>
       <c r="C3" t="n">
-        <v>2.770887108826179e-109</v>
+        <v>1.396470841591174e-109</v>
       </c>
     </row>
     <row r="4">
@@ -408,7 +408,7 @@
         <v>0.2</v>
       </c>
       <c r="C4" t="n">
-        <v>1.346392109948661e-80</v>
+        <v>8.198763875614212e-81</v>
       </c>
     </row>
     <row r="5">
@@ -419,7 +419,7 @@
         <v>0.3</v>
       </c>
       <c r="C5" t="n">
-        <v>5.628738931700521e-52</v>
+        <v>4.141793217184709e-52</v>
       </c>
     </row>
     <row r="6">
@@ -430,7 +430,7 @@
         <v>0.4</v>
       </c>
       <c r="C6" t="n">
-        <v>1.031314642680894e-37</v>
+        <v>8.342493033578536e-38</v>
       </c>
     </row>
     <row r="7">
@@ -441,7 +441,7 @@
         <v>0.5</v>
       </c>
       <c r="C7" t="n">
-        <v>3.567694350869352e-29</v>
+        <v>3.05491659387104e-29</v>
       </c>
     </row>
     <row r="8">
@@ -452,7 +452,7 @@
         <v>0.6</v>
       </c>
       <c r="C8" t="n">
-        <v>1.78418817859424e-23</v>
+        <v>1.586812914946844e-23</v>
       </c>
     </row>
     <row r="9">
@@ -463,7 +463,7 @@
         <v>0.7</v>
       </c>
       <c r="C9" t="n">
-        <v>2.231786737560573e-19</v>
+        <v>2.03908490631078e-19</v>
       </c>
     </row>
     <row r="10">
@@ -474,7 +474,7 @@
         <v>0.8</v>
       </c>
       <c r="C10" t="n">
-        <v>2.862831415839441e-16</v>
+        <v>2.66829185459e-16</v>
       </c>
     </row>
     <row r="11">
@@ -485,7 +485,7 @@
         <v>0.9</v>
       </c>
       <c r="C11" t="n">
-        <v>8.060266005434188e-14</v>
+        <v>7.62806175519554e-14</v>
       </c>
     </row>
     <row r="12">
@@ -496,7 +496,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>7.75003910966522e-12</v>
+        <v>7.423545069586396e-12</v>
       </c>
     </row>
     <row r="13">
@@ -507,7 +507,7 @@
         <v>1.5</v>
       </c>
       <c r="C13" t="n">
-        <v>8.649071599281279e-06</v>
+        <v>8.589274882517146e-06</v>
       </c>
     </row>
     <row r="14">
@@ -518,7 +518,7 @@
         <v>2</v>
       </c>
       <c r="C14" t="n">
-        <v>0.009480027440520244</v>
+        <v>0.009588429692413452</v>
       </c>
     </row>
     <row r="15">
@@ -529,7 +529,7 @@
         <v>2.5</v>
       </c>
       <c r="C15" t="n">
-        <v>0.6131053387872389</v>
+        <v>0.6270369981612888</v>
       </c>
     </row>
     <row r="16">
@@ -540,7 +540,7 @@
         <v>3</v>
       </c>
       <c r="C16" t="n">
-        <v>9.596836498523867</v>
+        <v>9.888232775862878</v>
       </c>
     </row>
     <row r="17">
@@ -551,7 +551,7 @@
         <v>3.5</v>
       </c>
       <c r="C17" t="n">
-        <v>66.87627009021833</v>
+        <v>69.27556261059786</v>
       </c>
     </row>
     <row r="18">
@@ -562,7 +562,7 @@
         <v>4</v>
       </c>
       <c r="C18" t="n">
-        <v>281.4785845770608</v>
+        <v>292.749216176732</v>
       </c>
     </row>
     <row r="19">
@@ -573,7 +573,7 @@
         <v>4.5</v>
       </c>
       <c r="C19" t="n">
-        <v>847.5940342693552</v>
+        <v>884.2922689947826</v>
       </c>
     </row>
     <row r="20">
@@ -584,7 +584,7 @@
         <v>5</v>
       </c>
       <c r="C20" t="n">
-        <v>2020.97508774287</v>
+        <v>2113.763349220189</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>6</v>
       </c>
       <c r="C21" t="n">
-        <v>7224.308108617844</v>
+        <v>7584.467717169531</v>
       </c>
     </row>
     <row r="22">
@@ -606,7 +606,7 @@
         <v>7</v>
       </c>
       <c r="C22" t="n">
-        <v>17409.30421840865</v>
+        <v>18326.4593093577</v>
       </c>
     </row>
     <row r="23">
@@ -617,7 +617,7 @@
         <v>8</v>
       </c>
       <c r="C23" t="n">
-        <v>32886.41687180898</v>
+        <v>34688.91734583285</v>
       </c>
     </row>
     <row r="24">
@@ -628,7 +628,7 @@
         <v>9</v>
       </c>
       <c r="C24" t="n">
-        <v>52927.60342131788</v>
+        <v>55916.37558904168</v>
       </c>
     </row>
     <row r="25">
@@ -639,7 +639,7 @@
         <v>10</v>
       </c>
       <c r="C25" t="n">
-        <v>76268.12442427165</v>
+        <v>80676.34328647035</v>
       </c>
     </row>
   </sheetData>

--- a/legendre_out/DATA/p2/a0/p2_rates.xlsx
+++ b/legendre_out/DATA/p2/a0/p2_rates.xlsx
@@ -386,7 +386,7 @@
         <v>0.1</v>
       </c>
       <c r="C2" t="n">
-        <v>3.36716972979185e-167</v>
+        <v>3.369226610684404e-167</v>
       </c>
     </row>
     <row r="3">
@@ -397,7 +397,7 @@
         <v>0.15</v>
       </c>
       <c r="C3" t="n">
-        <v>1.396470841591174e-109</v>
+        <v>1.398600466113021e-109</v>
       </c>
     </row>
     <row r="4">
@@ -408,7 +408,7 @@
         <v>0.2</v>
       </c>
       <c r="C4" t="n">
-        <v>8.198763875614212e-81</v>
+        <v>8.214551962600725e-81</v>
       </c>
     </row>
     <row r="5">
@@ -419,7 +419,7 @@
         <v>0.3</v>
       </c>
       <c r="C5" t="n">
-        <v>4.141793217184709e-52</v>
+        <v>4.151372054706224e-52</v>
       </c>
     </row>
     <row r="6">
@@ -430,7 +430,7 @@
         <v>0.4</v>
       </c>
       <c r="C6" t="n">
-        <v>8.342493033578536e-38</v>
+        <v>8.363245250900884e-38</v>
       </c>
     </row>
     <row r="7">
@@ -441,7 +441,7 @@
         <v>0.5</v>
       </c>
       <c r="C7" t="n">
-        <v>3.05491659387104e-29</v>
+        <v>3.062596873008932e-29</v>
       </c>
     </row>
     <row r="8">
@@ -452,7 +452,7 @@
         <v>0.6</v>
       </c>
       <c r="C8" t="n">
-        <v>1.586812914946844e-23</v>
+        <v>1.590586148727412e-23</v>
       </c>
     </row>
     <row r="9">
@@ -463,7 +463,7 @@
         <v>0.7</v>
       </c>
       <c r="C9" t="n">
-        <v>2.03908490631078e-19</v>
+        <v>2.043377016884456e-19</v>
       </c>
     </row>
     <row r="10">
@@ -474,7 +474,7 @@
         <v>0.8</v>
       </c>
       <c r="C10" t="n">
-        <v>2.66829185459e-16</v>
+        <v>2.673052700333099e-16</v>
       </c>
     </row>
     <row r="11">
@@ -485,7 +485,7 @@
         <v>0.9</v>
       </c>
       <c r="C11" t="n">
-        <v>7.62806175519554e-14</v>
+        <v>7.639532072291518e-14</v>
       </c>
     </row>
     <row r="12">
@@ -496,7 +496,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>7.423545069586396e-12</v>
+        <v>7.4331911845233e-12</v>
       </c>
     </row>
     <row r="13">
@@ -507,7 +507,7 @@
         <v>1.5</v>
       </c>
       <c r="C13" t="n">
-        <v>8.589274882517146e-06</v>
+        <v>8.597928510771402e-06</v>
       </c>
     </row>
     <row r="14">
@@ -518,7 +518,7 @@
         <v>2</v>
       </c>
       <c r="C14" t="n">
-        <v>0.009588429692413452</v>
+        <v>0.009598514731098866</v>
       </c>
     </row>
     <row r="15">
@@ -529,7 +529,7 @@
         <v>2.5</v>
       </c>
       <c r="C15" t="n">
-        <v>0.6270369981612888</v>
+        <v>0.62774667357133</v>
       </c>
     </row>
     <row r="16">
@@ -540,7 +540,7 @@
         <v>3</v>
       </c>
       <c r="C16" t="n">
-        <v>9.888232775862878</v>
+        <v>9.900177298376054</v>
       </c>
     </row>
     <row r="17">
@@ -551,7 +551,7 @@
         <v>3.5</v>
       </c>
       <c r="C17" t="n">
-        <v>69.27556261059786</v>
+        <v>69.36379040770845</v>
       </c>
     </row>
     <row r="18">
@@ -562,7 +562,7 @@
         <v>4</v>
       </c>
       <c r="C18" t="n">
-        <v>292.749216176732</v>
+        <v>293.1381418553482</v>
       </c>
     </row>
     <row r="19">
@@ -573,7 +573,7 @@
         <v>4.5</v>
       </c>
       <c r="C19" t="n">
-        <v>884.2922689947826</v>
+        <v>885.5074901984677</v>
       </c>
     </row>
     <row r="20">
@@ -584,7 +584,7 @@
         <v>5</v>
       </c>
       <c r="C20" t="n">
-        <v>2113.763349220189</v>
+        <v>2116.748650211783</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>6</v>
       </c>
       <c r="C21" t="n">
-        <v>7584.467717169531</v>
+        <v>7595.625995012076</v>
       </c>
     </row>
     <row r="22">
@@ -606,7 +606,7 @@
         <v>7</v>
       </c>
       <c r="C22" t="n">
-        <v>18326.4593093577</v>
+        <v>18354.20281123318</v>
       </c>
     </row>
     <row r="23">
@@ -617,7 +617,7 @@
         <v>8</v>
       </c>
       <c r="C23" t="n">
-        <v>34688.91734583285</v>
+        <v>34742.53666230598</v>
       </c>
     </row>
     <row r="24">
@@ -628,7 +628,7 @@
         <v>9</v>
       </c>
       <c r="C24" t="n">
-        <v>55916.37558904168</v>
+        <v>56004.17641129682</v>
       </c>
     </row>
     <row r="25">
@@ -639,7 +639,7 @@
         <v>10</v>
       </c>
       <c r="C25" t="n">
-        <v>80676.34328647035</v>
+        <v>80804.5796368625</v>
       </c>
     </row>
   </sheetData>
